--- a/experiment result/4096_0.2_40_zs30_kappa_lp.xlsx
+++ b/experiment result/4096_0.2_40_zs30_kappa_lp.xlsx
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.002995176296068999</v>
+        <v>0.003000533020931992</v>
       </c>
     </row>
     <row r="51">
